--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Задание 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Накладная" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ООО "Аленький цветочек"</t>
   </si>
@@ -58,6 +58,36 @@
   </si>
   <si>
     <t>Цена(руб)</t>
+  </si>
+  <si>
+    <t>Курс доллара:</t>
+  </si>
+  <si>
+    <t>Страна</t>
+  </si>
+  <si>
+    <t>Цена в долларах</t>
+  </si>
+  <si>
+    <t>Цена в рублях</t>
+  </si>
+  <si>
+    <t>Англия</t>
+  </si>
+  <si>
+    <t>Болгария</t>
+  </si>
+  <si>
+    <t>Бельгия</t>
+  </si>
+  <si>
+    <t>Турция</t>
+  </si>
+  <si>
+    <t>Египет</t>
+  </si>
+  <si>
+    <t>рублей</t>
   </si>
 </sst>
 </file>
@@ -66,9 +96,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +108,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,17 +146,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -422,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -434,20 +478,20 @@
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="2">
         <f ca="1">TODAY()</f>
         <v>44951</v>
       </c>
@@ -456,7 +500,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>31.5</v>
       </c>
     </row>
@@ -475,13 +519,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>300</v>
       </c>
       <c r="D5">
@@ -490,13 +534,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>100</v>
       </c>
       <c r="D6">
@@ -505,13 +549,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>50</v>
       </c>
       <c r="D7">
@@ -520,13 +564,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>400</v>
       </c>
       <c r="D8">
@@ -535,13 +579,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1200</v>
       </c>
       <c r="D9">
@@ -550,13 +594,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>700</v>
       </c>
       <c r="D10">
@@ -565,13 +609,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>200</v>
       </c>
       <c r="D11">
@@ -591,13 +635,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="3" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6">
+        <v>67.5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1350</v>
+      </c>
+      <c r="C3">
+        <f>B3*$B$1</f>
+        <v>91125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6">
+        <v>450</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C7" si="0">B4*$B$1</f>
+        <v>30375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1180</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>79650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6">
+        <v>780</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>52650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6">
+        <v>560</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>37800</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -605,7 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -154,14 +154,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -479,18 +479,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="2">
         <f ca="1">TODAY()</f>
         <v>44951</v>
@@ -651,7 +651,7 @@
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="5">
         <v>67.5</v>
       </c>
       <c r="C1" t="s">
@@ -659,22 +659,22 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1350</v>
       </c>
       <c r="C3">
@@ -686,7 +686,7 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>450</v>
       </c>
       <c r="C4">
@@ -698,7 +698,7 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1180</v>
       </c>
       <c r="C5">
@@ -710,7 +710,7 @@
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>780</v>
       </c>
       <c r="C6">
@@ -722,7 +722,7 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>560</v>
       </c>
       <c r="C7">
